--- a/medicine/Sexualité et sexologie/Monika_Krause-Fuchs/Monika_Krause-Fuchs.xlsx
+++ b/medicine/Sexualité et sexologie/Monika_Krause-Fuchs/Monika_Krause-Fuchs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monika Krause-Fuchs, née Monika Krause le 8 avril 1941 à Schwaan en Allemagne et morte le 20 mai 2019 à Glücksburg, est une sociologue est-allemande ayant participé à la révolution cubaine, notamment dans ses aspects féministes et dans le développement de l'éducation sexuelle.
-Elle fut la fondatrice[1] et première directrice du Centre national d'éducation sexuelle de Cuba jusqu'en 1990. Elle était également ministre de l'éducation sexuelle du gouvernement, ce qui lui a valu le surnom de La Reine du préservatif (espagnol : La Reina del Condón ; allemand : Die Königin der Kondome)[1].
+Elle fut la fondatrice et première directrice du Centre national d'éducation sexuelle de Cuba jusqu'en 1990. Elle était également ministre de l'éducation sexuelle du gouvernement, ce qui lui a valu le surnom de La Reine du préservatif (espagnol : La Reina del Condón ; allemand : Die Königin der Kondome).
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monika Krause-Fuchs suit les cours à l'université de Rostock (RDA) dans le domaine des études latino-américaines[2].
-En 1961, peu avant la construction du mur de Berlin, elle rencontre le capitaine du navire Sierra Maestra, Jesus Jimenez, qui est en contact avec les plus hauts cercles cubains. Elle l'épouse et en 1962 obtient un permis de sortie pour Cuba[1].
-À cette époque, il y a presque autant d'avortements que de naissances. Elle rencontre alors Vilma Espin Castro, belle-sœur de Fidel Castro et femme de Raúl Castro, qui lance des études pour établir un programme national d'éducation sexuelle, de conseil, de thérapie et de planification familiale. Monika Krause-Fuchs fonde le Centre national d'éducation sexuelle et en devient la directrice[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monika Krause-Fuchs suit les cours à l'université de Rostock (RDA) dans le domaine des études latino-américaines.
+En 1961, peu avant la construction du mur de Berlin, elle rencontre le capitaine du navire Sierra Maestra, Jesus Jimenez, qui est en contact avec les plus hauts cercles cubains. Elle l'épouse et en 1962 obtient un permis de sortie pour Cuba.
+À cette époque, il y a presque autant d'avortements que de naissances. Elle rencontre alors Vilma Espin Castro, belle-sœur de Fidel Castro et femme de Raúl Castro, qui lance des études pour établir un programme national d'éducation sexuelle, de conseil, de thérapie et de planification familiale. Monika Krause-Fuchs fonde le Centre national d'éducation sexuelle et en devient la directrice.
 Elle passe un an aux Pays-Bas, deux ans à New York aux États-Unis, et au Chili. À partir de 1970, elle étudie à l'université de La Havane où elle obtient un diplôme en langue espagnole et littérature.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Kuba heute. Politik. Wirtschaft. Kultur., Francfort-sur-le-Main, Vervuert, 2001, 863 p. (ISBN 3-89354-575-1), « Die kubanische Sexualpolitik zwischen Anspruch und Wirklichkeit »
 (de) Die kubanische Sexualpolitik zwischen Anspruch und Wirklichkeit, Francfort-sur-le-Main, Vervuert Verlag, 2001, 863 p. (ISBN 3-89354-575-1)
